--- a/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T13:24:30+00:00</t>
+    <t>2025-04-11T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="534">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:24:27+00:00</t>
+    <t>2025-04-30T16:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1571,8 +1571,8 @@
     <t>MedicationStatement.dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>Range {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeUcum}
-Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum}</t>
+    <t xml:space="preserve">Range {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeMedication}
+</t>
   </si>
   <si>
     <t>Precise amount of medication per dose</t>
@@ -1596,8 +1596,8 @@
     <t>MedicationStatement.dosage.doseAndRate.rate[x]</t>
   </si>
   <si>
-    <t>Ratio {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioUcum}
-Range {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeUcum}Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum}</t>
+    <t xml:space="preserve">Ratio {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioMedication}
+</t>
   </si>
   <si>
     <t>Precise amount of medication per unit of time</t>
@@ -1626,10 +1626,6 @@
     <t>MedicationStatement.dosage.maxDosePerPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioUcum}
-</t>
-  </si>
-  <si>
     <t>Upper limit on medication per unit of time</t>
   </si>
   <si>
@@ -1654,7 +1650,7 @@
     <t>MedicationStatement.dosage.maxDosePerAdministration</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum}
+    <t xml:space="preserve">Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityMedication}
 </t>
   </si>
   <si>
@@ -2015,17 +2011,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.41015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="53.5859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.3359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.21875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.9375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2034,26 +2030,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="198.02734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="85.421875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.25" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="169.7734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.84375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="73.234375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="140.73046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="120.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="24.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10546,19 +10542,19 @@
         <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>19</v>
@@ -10607,7 +10603,7 @@
         <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10625,21 +10621,21 @@
         <v>19</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>521</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10662,19 +10658,19 @@
         <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>19</v>
@@ -10723,7 +10719,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10741,7 +10737,7 @@
         <v>19</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>19</v>
@@ -10752,10 +10748,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10778,17 +10774,17 @@
         <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>19</v>
@@ -10837,7 +10833,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -10855,7 +10851,7 @@
         <v>19</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>19</v>

--- a/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:49:21+00:00</t>
+    <t>2025-05-05T07:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication-reconciliation-statement</t>
+    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-medication-reconciliation-statement</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:40:26+00:00</t>
+    <t>2025-05-05T08:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -623,7 +623,7 @@
     <t>reconciliation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medicationstatement-reconciliation-properties}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-medicationstatement-reconciliation-properties}
 </t>
   </si>
   <si>
@@ -813,7 +813,7 @@
     <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-medication)
 </t>
   </si>
   <si>
@@ -1083,7 +1083,7 @@
     <t>fromMedicationHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication-history-medicationstatement)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-medication-history-medicationstatement)
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
     <t>fromCurrentMedication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-current-medication-medicationstatement)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-current-medication-medicationstatement)
 </t>
   </si>
   <si>
@@ -1571,7 +1571,7 @@
     <t>MedicationStatement.dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Range {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeMedication}
+    <t xml:space="preserve">Range {https://hl7.fr/ig/fhir/medication/StructureDefinition/FrRangeMedication}
 </t>
   </si>
   <si>
@@ -1596,7 +1596,7 @@
     <t>MedicationStatement.dosage.doseAndRate.rate[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioMedication}
+    <t xml:space="preserve">Ratio {https://hl7.fr/ig/fhir/medication/StructureDefinition/FrRatioMedication}
 </t>
   </si>
   <si>
@@ -1650,7 +1650,7 @@
     <t>MedicationStatement.dosage.maxDosePerAdministration</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityMedication}
+    <t xml:space="preserve">Quantity {https://hl7.fr/ig/fhir/medication/StructureDefinition/FrSimpleQuantityMedication}
 </t>
   </si>
   <si>
@@ -2021,7 +2021,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.72265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:11:38+00:00</t>
+    <t>2025-05-05T10:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T10:03:44+00:00</t>
+    <t>2025-07-09T18:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T18:07:38+00:00</t>
+    <t>2025-07-21T09:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:10:19+00:00</t>
+    <t>2025-07-31T09:35:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T09:35:58+00:00</t>
+    <t>2025-08-08T09:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-08T09:43:11+00:00</t>
+    <t>2025-08-21T08:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:04:49+00:00</t>
+    <t>2025-09-23T14:10:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -448,7 +448,7 @@
     <t>MedicationStatement.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -486,7 +486,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -510,7 +510,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -553,7 +553,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -694,7 +694,7 @@
     <t>MedicationStatement.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest|CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1|CarePlan|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -716,7 +716,7 @@
     <t>MedicationStatement.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Observation)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -786,7 +786,7 @@
     <t>A coded concept indicating the reason for the status of the statement.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-status-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-status-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -807,7 +807,7 @@
     <t>A coded concept identifying where the medication included in the MedicationStatement is expected to be consumed or administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-statement-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-statement-category|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
@@ -922,7 +922,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -970,7 +970,7 @@
     <t>MedicationStatement.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1033,7 +1033,7 @@
     <t>MedicationStatement.informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1061,7 +1061,7 @@
     <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1202,7 +1202,7 @@
     <t>A coded concept identifying why the medication is being taken.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1217,7 +1217,7 @@
     <t>MedicationStatement.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1)
 </t>
   </si>
   <si>
@@ -1364,7 +1364,7 @@
     <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes|4.0.1</t>
   </si>
   <si>
     <t>Dosage.additionalInstruction</t>
@@ -1426,7 +1426,7 @@
     <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason|4.0.1</t>
   </si>
   <si>
     <t>Dosage.asNeeded[x]</t>
@@ -1456,7 +1456,7 @@
     <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes|4.0.1</t>
   </si>
   <si>
     <t>Dosage.site</t>
@@ -1483,7 +1483,7 @@
     <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/route-codes|4.0.1</t>
   </si>
   <si>
     <t>Dosage.route</t>
@@ -1513,7 +1513,7 @@
     <t>A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes|4.0.1</t>
   </si>
   <si>
     <t>Dosage.method</t>
@@ -1565,7 +1565,7 @@
     <t>The kind of dose or rate specified.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
+    <t>http://hl7.org/fhir/ValueSet/dose-rate-type|4.0.1</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.type</t>
@@ -2029,7 +2029,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.72265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2044,7 +2044,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.7734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.84375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.28125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="73.234375" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:10:57+00:00</t>
+    <t>2025-10-24T13:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3998,7 +3998,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>192</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>227</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>253</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>262</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>274</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>321</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>329</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>338</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>358</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>388</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>498</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>506</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>515</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>523</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>531</v>
       </c>
@@ -10870,12 +10870,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN77">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T13:47:42+00:00</t>
+    <t>2026-01-20T09:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-reconciliation-statement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T09:44:19+00:00</t>
+    <t>2026-01-20T11:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
